--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 12,89</t>
+          <t>-7,0; 13,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,29</t>
+          <t>0,0; 32,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 36,81</t>
+          <t>-4,91; 37,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 3,48</t>
+          <t>-7,58; 3,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 6,53</t>
+          <t>-7,76; 6,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 7,69</t>
+          <t>-7,03; 7,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,02</t>
+          <t>-4,66; 5,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 110,68</t>
+          <t>-79,29; 98,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; 137,43</t>
+          <t>-63,92; 132,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,57; 152,53</t>
+          <t>-56,95; 139,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 188,98</t>
+          <t>-68,02; 210,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 3,33</t>
+          <t>-6,04; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 8,83</t>
+          <t>-2,13; 9,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 6,29</t>
+          <t>-2,31; 6,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,45</t>
+          <t>-6,16; 2,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 65,83</t>
+          <t>-56,83; 76,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 157,79</t>
+          <t>-26,85; 180,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 177,39</t>
+          <t>-37,65; 185,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 47,05</t>
+          <t>-62,76; 48,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,21</t>
+          <t>-3,62; 6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 8,86</t>
+          <t>-5,82; 9,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 9,12</t>
+          <t>-2,56; 9,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 0,59</t>
+          <t>-9,4; 0,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 183,58</t>
+          <t>-48,3; 199,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 89,04</t>
+          <t>-36,03; 99,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 197,36</t>
+          <t>-29,24; 207,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,69; 15,66</t>
+          <t>-71,37; 15,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 2,57</t>
+          <t>-8,88; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 3,29</t>
+          <t>-7,03; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,4</t>
+          <t>-3,95; 5,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,29</t>
+          <t>-6,66; 3,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 34,67</t>
+          <t>-65,67; 27,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 62,02</t>
+          <t>-62,59; 66,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 143,62</t>
+          <t>-48,04; 150,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 53,8</t>
+          <t>-53,13; 54,64</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,36</t>
+          <t>-3,99; 1,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,23</t>
+          <t>-2,45; 3,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,61</t>
+          <t>-0,58; 4,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,54</t>
+          <t>-4,17; 0,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 21,82</t>
+          <t>-43,32; 18,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 53,82</t>
+          <t>-22,78; 46,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 83,64</t>
+          <t>-7,94; 81,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 8,11</t>
+          <t>-45,6; 8,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>-27,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>236,47%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 13,28</t>
+          <t>-6,45; 3,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>-5,02; 7,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 37,15</t>
+          <t>-5,23; 9,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 4,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,47; 96,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,36; 167,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,95; 175,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,7; 172,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-26,2%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 3,18</t>
+          <t>-6,36; 4,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,9</t>
+          <t>-2,26; 9,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 7,67</t>
+          <t>-2,19; 6,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,52</t>
+          <t>-7,22; 2,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,29; 98,15</t>
+          <t>-60,72; 70,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,92; 132,02</t>
+          <t>-25,36; 169,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 139,03</t>
+          <t>-32,12; 186,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 210,46</t>
+          <t>-65,17; 41,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,98%</t>
+          <t>-47,48%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,91</t>
+          <t>-3,61; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,55</t>
+          <t>-5,71; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 6,7</t>
+          <t>-2,85; 8,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,38</t>
+          <t>-10,34; -0,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 76,32</t>
+          <t>-45,75; 228,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 180,82</t>
+          <t>-37,0; 90,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 185,41</t>
+          <t>-29,18; 191,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 48,12</t>
+          <t>-75,02; 1,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>-30,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,05%</t>
+          <t>-16,8%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 6,57</t>
+          <t>-8,39; 2,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 9,55</t>
+          <t>-6,71; 4,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 9,47</t>
+          <t>-3,86; 5,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 0,86</t>
+          <t>-6,61; 2,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 199,39</t>
+          <t>-64,55; 29,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 99,98</t>
+          <t>-59,72; 80,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 207,9</t>
+          <t>-49,45; 142,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,37; 15,93</t>
+          <t>-52,62; 49,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>-17,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-26,86%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 1,81</t>
+          <t>-3,97; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,45</t>
+          <t>-2,11; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,53</t>
+          <t>-0,73; 4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,49</t>
+          <t>-4,83; 0,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 27,3</t>
+          <t>-42,67; 18,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 66,2</t>
+          <t>-19,37; 52,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 150,69</t>
+          <t>-9,69; 81,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,13; 54,64</t>
+          <t>-49,59; 5,05</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-17,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-23,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 1,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 4,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 0,43</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-43,32; 18,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 46,11</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 81,73</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-45,6; 8,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
